--- a/1.xlsx
+++ b/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/code/core/python/GenerateSql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2DE3AC-98E6-BE49-AB76-9A928C6872F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6799CA0-FC1B-BF4F-BC64-235E17579BBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24140" yWindow="3800" windowWidth="29060" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9340" yWindow="3560" windowWidth="29060" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="服务平台" sheetId="1" r:id="rId1"/>
@@ -803,6 +803,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -811,9 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1171,20 +1171,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -1483,20 +1483,20 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" ht="27" customHeight="1">
       <c r="B21" s="2" t="s">
@@ -1704,20 +1704,20 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="25" customHeight="1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="25" customHeight="1">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" ht="27" customHeight="1">
       <c r="B34" s="2" t="s">
@@ -1876,8 +1876,8 @@
       <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>12</v>
+      <c r="D42" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>11</v>
@@ -1927,20 +1927,20 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="25" customHeight="1">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="25" customHeight="1">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" ht="25" customHeight="1">
       <c r="B47" s="2" t="s">
@@ -2237,20 +2237,20 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="25" customHeight="1">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="25" customHeight="1">
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="2:8" ht="25" customHeight="1">
       <c r="B65" s="2" t="s">
@@ -2539,20 +2539,20 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="25" customHeight="1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="25" customHeight="1">
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" ht="25" customHeight="1">
       <c r="B83" s="2" t="s">
@@ -2819,7 +2819,7 @@
       </c>
     </row>
     <row r="97" spans="1:1" ht="25" customHeight="1">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2867,15 +2867,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="2:8" ht="23.25" customHeight="1">
       <c r="B2" s="2" t="s">
@@ -3099,15 +3099,15 @@
     </row>
     <row r="14" spans="2:8" ht="23.25" customHeight="1"/>
     <row r="15" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="2:8" ht="23.25" customHeight="1">
       <c r="B16" s="2" t="s">
@@ -3338,15 +3338,15 @@
     </row>
     <row r="28" spans="1:8" ht="23.25" customHeight="1"/>
     <row r="29" spans="1:8" ht="23.25" customHeight="1">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="23.25" customHeight="1">
       <c r="B30" s="2" t="s">
@@ -3576,15 +3576,15 @@
     </row>
     <row r="42" spans="2:8" ht="23.25" customHeight="1"/>
     <row r="43" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="2:8" ht="23.25" customHeight="1">
       <c r="B44" s="2" t="s">
